--- a/data/trans_camb/P16A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Edad-trans_camb.xlsx
@@ -682,22 +682,22 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.090558643781848</v>
+        <v>-1.062235304021421</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.26892346475192</v>
+        <v>-1.206357037934772</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1964953121128847</v>
+        <v>0.06318135330422123</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4895099981240562</v>
+        <v>-0.4084221875510885</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6166005513413891</v>
+        <v>-0.5758402458479488</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4257668573085184</v>
+        <v>0.4446219786695611</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9059011960445756</v>
+        <v>1.035752560056092</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>4.775610874553093</v>
+        <v>4.100545398526275</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.865146014746527</v>
+        <v>1.852658543642604</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.032267185158557</v>
+        <v>1.77802674682892</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.141240974109859</v>
+        <v>6.87967726205871</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.082812057109057</v>
+        <v>1.02818920058481</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8295546153438544</v>
+        <v>0.8636787451600187</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.191274681670172</v>
+        <v>3.869123645629959</v>
       </c>
     </row>
     <row r="7">
@@ -781,22 +781,20 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.7193589303780195</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>-0.8118355332202646</v>
-      </c>
+        <v>-0.7211802132231521</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.3459001125004743</v>
+        <v>-0.4708350060035795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.658933984106184</v>
+        <v>-0.6053665740122008</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8595195231311904</v>
+        <v>-0.8063311071778543</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.05509989461585522</v>
+        <v>0.1098748787887764</v>
       </c>
     </row>
     <row r="9">
@@ -810,22 +808,20 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>4.164089369637064</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>5.143317806717058</v>
-      </c>
+        <v>3.884020862717446</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>13.80991198298723</v>
+        <v>12.64876040914875</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.106850748386957</v>
+        <v>5.349897801811056</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.57662034647505</v>
+        <v>4.966075832845079</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>16.75065013232588</v>
+        <v>17.13658322830949</v>
       </c>
     </row>
     <row r="10">
@@ -855,7 +851,7 @@
         <v>-0.01591848697653896</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3151391660545568</v>
+        <v>0.3151391660545569</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.04429480697685922</v>
@@ -864,7 +860,7 @@
         <v>-0.1763045127110853</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.3973169728917545</v>
+        <v>0.3973169728917547</v>
       </c>
     </row>
     <row r="11">
@@ -875,31 +871,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7018344668540187</v>
+        <v>-0.59859203910171</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.187189550405442</v>
+        <v>-1.199496262249292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5529989462776341</v>
+        <v>-0.6087711385259863</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.435436443713646</v>
+        <v>-1.548859428132756</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.25358079856892</v>
+        <v>-1.332706483832006</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.068501291762054</v>
+        <v>-0.9041084074277219</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.6892167578553748</v>
+        <v>-0.7423883294666703</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.8533929541247838</v>
+        <v>-0.855113778151091</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.5077906688357255</v>
+        <v>-0.4301123656165185</v>
       </c>
     </row>
     <row r="12">
@@ -910,31 +906,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.557100528991282</v>
+        <v>1.610292798977211</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3980846274091521</v>
+        <v>0.3945956672491307</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.986751630215965</v>
+        <v>1.958573619657354</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.110816837090961</v>
+        <v>1.050506935108016</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.15452326892806</v>
+        <v>1.192458326488246</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.79519047773097</v>
+        <v>2.006472572492177</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.003680042421538</v>
+        <v>0.8860318610447983</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4716026336193271</v>
+        <v>0.5075714206843476</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.490525456873372</v>
+        <v>1.453681956654739</v>
       </c>
     </row>
     <row r="13">
@@ -960,7 +956,7 @@
         <v>-0.01354114412193286</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2680747782311094</v>
+        <v>0.2680747782311095</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.04841216879654491</v>
@@ -969,7 +965,7 @@
         <v>-0.1926926520623674</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4342490163105742</v>
+        <v>0.4342490163105744</v>
       </c>
     </row>
     <row r="14">
@@ -980,29 +976,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7459560247657375</v>
-      </c>
-      <c r="D14" s="6" t="inlineStr"/>
+        <v>-0.6877486950740387</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6946969786920041</v>
+        <v>-0.716664418823956</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8543591502000911</v>
+        <v>-0.9078986293063185</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7535236380610794</v>
+        <v>-0.7509337501459336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7004965965846306</v>
+        <v>-0.646926747474147</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.606539875690408</v>
+        <v>-0.6107894756229153</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6733630869508784</v>
+        <v>-0.6756247799165011</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4621855822023836</v>
+        <v>-0.386547562120996</v>
       </c>
     </row>
     <row r="15">
@@ -1013,29 +1011,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5.886560985513895</v>
-      </c>
-      <c r="D15" s="6" t="inlineStr"/>
+        <v>5.715016858262942</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>2.21936590551508</v>
+      </c>
       <c r="E15" s="6" t="n">
-        <v>7.021427380348432</v>
+        <v>8.197687653228574</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.24364287671983</v>
+        <v>2.15241567933101</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.083108548178532</v>
+        <v>2.29675335402561</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.697174922072528</v>
+        <v>3.620975126520765</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.735537839508116</v>
+        <v>1.449842666111362</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.82132951574047</v>
+        <v>1.039252279480828</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.547864249033972</v>
+        <v>2.316518266141963</v>
       </c>
     </row>
     <row r="16">
@@ -1085,31 +1085,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4221601449685948</v>
+        <v>-0.6295997012756092</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.661819644348109</v>
+        <v>-1.676857375706627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4941133847817716</v>
+        <v>-0.384969570861459</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.289262206642963</v>
+        <v>0.2920061419134574</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.785188523030377</v>
+        <v>-1.686951691686039</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.1562837932670691</v>
+        <v>-0.197185955038283</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3578632201963513</v>
+        <v>0.41377873162111</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.383653594627488</v>
+        <v>-1.265912998258406</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2022078688265854</v>
+        <v>0.2863957735703336</v>
       </c>
     </row>
     <row r="18">
@@ -1120,31 +1120,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.869269669119922</v>
+        <v>2.675110176997202</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8057858725376321</v>
+        <v>0.6146634445974437</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.029370473874891</v>
+        <v>3.162111838418053</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.200031982017882</v>
+        <v>4.044182810853876</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.491935792864529</v>
+        <v>1.566971500597838</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.426536679367393</v>
+        <v>3.47446733509547</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.8878966803032</v>
+        <v>2.859629510802382</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6503920630381349</v>
+        <v>0.7630577711446233</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.69167413222945</v>
+        <v>2.745526325076262</v>
       </c>
     </row>
     <row r="19">
@@ -1190,31 +1190,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3346701155453117</v>
+        <v>-0.3904263543105599</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.812267173494308</v>
+        <v>-0.8585594166934758</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.331206769402138</v>
+        <v>-0.2788822068950582</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03591313360663795</v>
+        <v>0.08323757319199689</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5789317550859856</v>
+        <v>-0.5490914086828159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.0937376920929321</v>
+        <v>-0.0869600450419943</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1383927252327239</v>
+        <v>0.1325238304623393</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5758681272791026</v>
+        <v>-0.5402675726936841</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.04439982998047142</v>
+        <v>0.08511298693729405</v>
       </c>
     </row>
     <row r="21">
@@ -1225,31 +1225,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.677343597876514</v>
+        <v>3.022649692557893</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.428377345657758</v>
+        <v>0.9919000661537691</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.000207259299178</v>
+        <v>3.944561082372148</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.632315254123399</v>
+        <v>2.733534339961092</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.010034678593658</v>
+        <v>1.112567809853072</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.208735711287504</v>
+        <v>2.556043905139088</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.138829792609645</v>
+        <v>2.135062618766607</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.477066098713976</v>
+        <v>0.5928782252100633</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.867103532250466</v>
+        <v>2.074380824533558</v>
       </c>
     </row>
     <row r="22">
@@ -1270,7 +1270,7 @@
         <v>1.090182227523114</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.919399177200718</v>
+        <v>2.919399177200717</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.422710457054671</v>
@@ -1279,7 +1279,7 @@
         <v>2.939459970505055</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.563510363398928</v>
+        <v>3.563510363398926</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.995323795946881</v>
@@ -1288,7 +1288,7 @@
         <v>2.023400292658517</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.280959800228072</v>
+        <v>3.280959800228074</v>
       </c>
     </row>
     <row r="23">
@@ -1299,31 +1299,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.33127859706558</v>
+        <v>-1.482568977815312</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9260921639681255</v>
+        <v>-0.804093472519631</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8892248229605068</v>
+        <v>0.7249933895807174</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9674735720654206</v>
+        <v>-0.9834541261282174</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3754911923445746</v>
+        <v>0.4183532143252935</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9495585822586139</v>
+        <v>1.092740184331938</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6305023191366623</v>
+        <v>-0.5353110808305606</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4970724267576896</v>
+        <v>0.3673434929035574</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.580575726492028</v>
+        <v>1.591568296177762</v>
       </c>
     </row>
     <row r="24">
@@ -1334,31 +1334,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.359699628157996</v>
+        <v>2.266760951552065</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.953938946770428</v>
+        <v>2.892564691479981</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.972022527548288</v>
+        <v>5.199730883421633</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.997231693383137</v>
+        <v>4.470042113904583</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.663286318320071</v>
+        <v>5.775033500719025</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.840736986962799</v>
+        <v>5.585168652398563</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.752626041468635</v>
+        <v>2.650043574739276</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.85246200806032</v>
+        <v>3.681733068947935</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.863456623370283</v>
+        <v>4.79479121745752</v>
       </c>
     </row>
     <row r="25">
@@ -1375,7 +1375,7 @@
         <v>0.5999556134351299</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.606621241844025</v>
+        <v>1.606621241844024</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3505464093072128</v>
@@ -1384,7 +1384,7 @@
         <v>0.724263417657045</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8780252905461934</v>
+        <v>0.878025290546193</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3392341611477778</v>
@@ -1404,31 +1404,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5208348922944016</v>
+        <v>-0.5711828769155476</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3848052453483786</v>
+        <v>-0.333167432367196</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2007403798045813</v>
+        <v>0.129430307407977</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1915962765284482</v>
+        <v>-0.2146361398824202</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04391655140310868</v>
+        <v>0.03109135742822679</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1574635121721386</v>
+        <v>0.1816322950087104</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1890314973780821</v>
+        <v>-0.1639269355556965</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1138197247547431</v>
+        <v>0.05934985384904401</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3987794608558176</v>
+        <v>0.3775744341124369</v>
       </c>
     </row>
     <row r="27">
@@ -1439,31 +1439,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.54918652679209</v>
+        <v>2.235005894306865</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.903791244872476</v>
+        <v>3.115132701090434</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.958861228084387</v>
+        <v>5.02086517035896</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.418561154557769</v>
+        <v>1.598432494016967</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.03076741590388</v>
+        <v>2.0153744838947</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.214204790902464</v>
+        <v>2.014070637804125</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.158635658667702</v>
+        <v>1.172187132945283</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.70837297821897</v>
+        <v>1.618570070248398</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.260969508342904</v>
+        <v>2.262204100191613</v>
       </c>
     </row>
     <row r="28">
@@ -1484,7 +1484,7 @@
         <v>1.13513072965105</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.869177899562314</v>
+        <v>3.869177899562312</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.9918874417811321</v>
@@ -1493,7 +1493,7 @@
         <v>6.864891882186201</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>7.941873759372788</v>
+        <v>7.941873759372791</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.3661024325083584</v>
@@ -1502,7 +1502,7 @@
         <v>4.050946584615275</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.857882081411681</v>
+        <v>5.857882081411683</v>
       </c>
     </row>
     <row r="29">
@@ -1513,31 +1513,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.385798819316491</v>
+        <v>-2.856919204965048</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.391605224570927</v>
+        <v>-1.250579968212357</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.527839515764855</v>
+        <v>1.433794986723829</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.749762849870168</v>
+        <v>-2.427014684932807</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.410743198980392</v>
+        <v>2.439542997847483</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.908479760049564</v>
+        <v>4.513266367089483</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.800341738688948</v>
+        <v>-1.609829338209159</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.689497166607564</v>
+        <v>1.692761701463653</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.659911370969184</v>
+        <v>3.80474633134194</v>
       </c>
     </row>
     <row r="30">
@@ -1548,31 +1548,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.720359750489151</v>
+        <v>1.822220376946749</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.636070247232877</v>
+        <v>3.698366821637322</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.226215610304548</v>
+        <v>6.192663487319161</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.359056819532399</v>
+        <v>4.335946875246236</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.94073675540534</v>
+        <v>10.86343573017846</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.04400194588333</v>
+        <v>10.78780411492454</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.494039627488994</v>
+        <v>2.669423275713207</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.754240104852125</v>
+        <v>6.663327115275871</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.070154774265854</v>
+        <v>7.741186626093668</v>
       </c>
     </row>
     <row r="31">
@@ -1589,7 +1589,7 @@
         <v>0.4450773034466691</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.517079241280012</v>
+        <v>1.517079241280011</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1543790954530682</v>
@@ -1598,7 +1598,7 @@
         <v>1.068463773724105</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.23608711586548</v>
+        <v>1.236087115865481</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.08081659929797275</v>
@@ -1607,7 +1607,7 @@
         <v>0.8942407857365697</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.293119266279155</v>
+        <v>1.293119266279156</v>
       </c>
     </row>
     <row r="32">
@@ -1618,31 +1618,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6690417178490971</v>
+        <v>-0.7128139899601798</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4370102957719474</v>
+        <v>-0.4041122891213998</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2687347581913891</v>
+        <v>0.255513281311653</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3416268185948207</v>
+        <v>-0.3020731223088796</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3741671664819763</v>
+        <v>0.308688806806282</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5437006391253687</v>
+        <v>0.5195388309426175</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.313279538823857</v>
+        <v>-0.2886842327984799</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2866514627576188</v>
+        <v>0.2838114265558363</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6149720268653526</v>
+        <v>0.6580959926622628</v>
       </c>
     </row>
     <row r="33">
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.169042752365757</v>
+        <v>1.26372356573339</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.18484613153692</v>
+        <v>2.452419739794656</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.155307512865813</v>
+        <v>4.184167192024326</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9607513851412628</v>
+        <v>0.9728179052821394</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.329097746054029</v>
+        <v>2.477808768469983</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.426571280174453</v>
+        <v>2.361966606520646</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6900643707942576</v>
+        <v>0.7401179774719906</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.057963393714117</v>
+        <v>1.848515333803571</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.441192066644376</v>
+        <v>2.278874491415641</v>
       </c>
     </row>
     <row r="34">
@@ -1707,7 +1707,7 @@
         <v>8.419453344095302</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>7.545877060514812</v>
+        <v>7.545877060514809</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.4130253619988755</v>
@@ -1716,7 +1716,7 @@
         <v>5.394422291445133</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>5.402445363911562</v>
+        <v>5.402445363911565</v>
       </c>
     </row>
     <row r="35">
@@ -1727,31 +1727,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.953933815152403</v>
+        <v>-5.104820568199798</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.513418247977005</v>
+        <v>-1.629520136242981</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.07812659164254733</v>
+        <v>0.1911537616160465</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.205504349906241</v>
+        <v>-2.315700122977526</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.833287888548397</v>
+        <v>3.431059068299367</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3.596834818225043</v>
+        <v>3.58634884312549</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.324519861004168</v>
+        <v>-2.439565295699833</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.998785922572819</v>
+        <v>1.829024093658913</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.864659107155882</v>
+        <v>2.984192567454403</v>
       </c>
     </row>
     <row r="36">
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.559044293439712</v>
+        <v>1.397876852574556</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.794000317109868</v>
+        <v>5.774325629615923</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.869428329733259</v>
+        <v>6.313813779754462</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.983230862564261</v>
+        <v>6.93834419625472</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>13.90327757867735</v>
+        <v>13.01120958643016</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>11.21964412918223</v>
+        <v>11.1976113654644</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.205777673605301</v>
+        <v>3.354666406684736</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.537200268412798</v>
+        <v>8.336615679014303</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>7.996350438838741</v>
+        <v>7.976977982819472</v>
       </c>
     </row>
     <row r="37">
@@ -1812,7 +1812,7 @@
         <v>0.9283631642424556</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8320390907323014</v>
+        <v>0.8320390907323011</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.05696017560063472</v>
@@ -1821,7 +1821,7 @@
         <v>0.7439427920301168</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.745049250999931</v>
+        <v>0.7450492509999314</v>
       </c>
     </row>
     <row r="38">
@@ -1832,31 +1832,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7431937926381292</v>
+        <v>-0.7691991330224317</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2524566473370491</v>
+        <v>-0.2627729319746111</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.0526014390382585</v>
+        <v>-0.005227315238318318</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1973495038611839</v>
+        <v>-0.2063514342528664</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.3373855908979618</v>
+        <v>0.2953840466548279</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3006039787350316</v>
+        <v>0.2820250238029248</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2870129328472086</v>
+        <v>-0.2860216864867771</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.2188243080563716</v>
+        <v>0.2238984994904885</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.3296219275752798</v>
+        <v>0.3221614492425147</v>
       </c>
     </row>
     <row r="39">
@@ -1867,31 +1867,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5672209787745075</v>
+        <v>0.4801554181081037</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.660054912976112</v>
+        <v>1.631732520241476</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.092587195717287</v>
+        <v>1.791338462962935</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.053497482119725</v>
+        <v>0.99121032326995</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.007318383857716</v>
+        <v>1.846258788521079</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.637431526504543</v>
+        <v>1.645337467160304</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5510894933864703</v>
+        <v>0.5525682579294423</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.406477255090204</v>
+        <v>1.428399179627986</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.415587804042868</v>
+        <v>1.390314910621464</v>
       </c>
     </row>
     <row r="40">
@@ -1912,7 +1912,7 @@
         <v>0.6126439337961684</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>7.937947095913225</v>
+        <v>7.93794709591322</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>8.48564047417238</v>
@@ -1941,31 +1941,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-8.142559872692265</v>
+        <v>-7.710852403809327</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.003823595426018</v>
+        <v>-4.32476348064367</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.24467836466318</v>
+        <v>2.847162389406397</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.774608493519576</v>
+        <v>3.560909276880293</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.07333741228215017</v>
+        <v>-0.5226050500685148</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>11.43674313497956</v>
+        <v>12.32893109215489</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.2437447817479565</v>
+        <v>0.3527901970130702</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.1316828643211242</v>
+        <v>-0.4886007472705666</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>9.682460915693241</v>
+        <v>9.344702538144308</v>
       </c>
     </row>
     <row r="42">
@@ -1976,31 +1976,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.404280137746527</v>
+        <v>1.303276796268466</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.459843827954276</v>
+        <v>5.629236450943347</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12.87308017905661</v>
+        <v>12.88696036353469</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14.0547658392711</v>
+        <v>13.93630971306953</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>10.80414402842234</v>
+        <v>10.50102449496218</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>20.90364275938437</v>
+        <v>21.24177595236706</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.873971533873076</v>
+        <v>7.737860334168893</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>7.144708806072863</v>
+        <v>7.272870233718589</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>16.56684290079794</v>
+        <v>16.24012104994257</v>
       </c>
     </row>
     <row r="43">
@@ -2017,7 +2017,7 @@
         <v>0.07671475477249516</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.9939830156918331</v>
+        <v>0.9939830156918324</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.8213149314286312</v>
@@ -2035,7 +2035,7 @@
         <v>0.3717621641403707</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.404050437770035</v>
+        <v>1.404050437770036</v>
       </c>
     </row>
     <row r="44">
@@ -2046,31 +2046,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7348063795969786</v>
+        <v>-0.7046401192606879</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3906999708602713</v>
+        <v>-0.4141428109903939</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1698689112159461</v>
+        <v>0.2128353806816065</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2035016091414487</v>
+        <v>0.2410506757002928</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.01382042338942335</v>
+        <v>-0.06246982128595879</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7917886408641476</v>
+        <v>0.8806676060512103</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02025751106715662</v>
+        <v>0.03208383372534524</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01877711488716912</v>
+        <v>-0.04943613512587439</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.8081796475664543</v>
+        <v>0.7871169877482326</v>
       </c>
     </row>
     <row r="45">
@@ -2081,31 +2081,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2697764196889301</v>
+        <v>0.3515768818247801</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.037397775249788</v>
+        <v>1.115745212356992</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.352192512620144</v>
+        <v>2.490305536557919</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.963927310106207</v>
+        <v>1.820926758349852</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.416716381706463</v>
+        <v>1.339853529996778</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.719423456052549</v>
+        <v>2.770585956204502</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.057739488886023</v>
+        <v>1.063364164154386</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.9289524735996564</v>
+        <v>0.9683760598141833</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.242630643521597</v>
+        <v>2.201412698327271</v>
       </c>
     </row>
     <row r="46">
@@ -2155,31 +2155,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.6477673826750117</v>
+        <v>-0.6500944384661768</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.09296979399016059</v>
+        <v>-0.1192878247985685</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.302112935901353</v>
+        <v>2.324407331450042</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.085077130650916</v>
+        <v>1.030456603305638</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.265985746542035</v>
+        <v>2.216688554926496</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>5.142448998175251</v>
+        <v>5.291590293476703</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.4265779616499215</v>
+        <v>0.4759557017561376</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.39412096644263</v>
+        <v>1.342263534225786</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>4.088864809222616</v>
+        <v>4.043812876649446</v>
       </c>
     </row>
     <row r="48">
@@ -2190,31 +2190,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.8573509652099989</v>
+        <v>0.7833367339400068</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.439677109939546</v>
+        <v>1.394848556110943</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.004918285748715</v>
+        <v>4.020162751653167</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.207766156676505</v>
+        <v>3.228625994261614</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.552586507118252</v>
+        <v>4.530454958308399</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.272654497541279</v>
+        <v>7.261713929767205</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.799176596948537</v>
+        <v>1.814102543534105</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.786756357500351</v>
+        <v>2.714205845988232</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5.487949038709054</v>
+        <v>5.442493798613715</v>
       </c>
     </row>
     <row r="49">
@@ -2260,31 +2260,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2784418895959542</v>
+        <v>-0.2868257114130657</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.044456096440857</v>
+        <v>-0.05977359721374072</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.967905822728923</v>
+        <v>0.9884302642946051</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2248776569874407</v>
+        <v>0.2147105864141954</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.4577668570990235</v>
+        <v>0.4654561013830694</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>1.068308973486432</v>
+        <v>1.087735675346628</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1260106909280423</v>
+        <v>0.1370629102200018</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.4062870394724362</v>
+        <v>0.3876277066959277</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.206435704833662</v>
+        <v>1.172962138549091</v>
       </c>
     </row>
     <row r="51">
@@ -2295,31 +2295,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.5164442906234104</v>
+        <v>0.4634870243746602</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.8529223607946551</v>
+        <v>0.8170620591697721</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.386573152052417</v>
+        <v>2.413611246526841</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.8687269411081519</v>
+        <v>0.889510224671619</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.234261610663283</v>
+        <v>1.217481562196059</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.986048020341825</v>
+        <v>2.000461724000596</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.6442239964934441</v>
+        <v>0.6539507662383941</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.9844403381392225</v>
+        <v>0.9768125025569646</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.991636555511175</v>
+        <v>1.952765757362556</v>
       </c>
     </row>
     <row r="52">
